--- a/data/Food_nutrition_Intake/nutrient_table1.xlsx
+++ b/data/Food_nutrition_Intake/nutrient_table1.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20201077\Desktop\DorukGüngör\Eindhoven\Data_Science_AI\Knowledge_Engineering\Knowledge-Engineering-2AMD20-\data\Food_nutrition_Intake\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924AED3F-AE40-4627-BA06-C5DF756701CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BFEB6B-999B-400E-81F2-0C324D1198D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Nutrient intake 2015 2016" sheetId="1" r:id="rId1"/>
-    <sheet name="Nutrient intake 2016 2017" sheetId="2" r:id="rId2"/>
+    <sheet name="2015 2016" sheetId="1" r:id="rId1"/>
+    <sheet name="2017 2018" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="24">
   <si>
     <t>Total</t>
   </si>
@@ -1232,10 +1232,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:O1048576"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1247,11 +1247,9 @@
     <col min="6" max="6" width="8.109375" customWidth="1"/>
     <col min="7" max="7" width="8.44140625" customWidth="1"/>
     <col min="8" max="8" width="8.109375" customWidth="1"/>
-    <col min="11" max="11" width="21.44140625" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>4</v>
       </c>
@@ -1276,29 +1274,8 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -1309,15 +1286,8 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-    </row>
-    <row r="3" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
@@ -1342,29 +1312,8 @@
       <c r="H3" s="4">
         <v>134.47</v>
       </c>
-      <c r="I3" s="4">
-        <v>2093.14</v>
-      </c>
-      <c r="J3" s="4">
-        <v>1402.55</v>
-      </c>
-      <c r="K3" s="4">
-        <v>690.6</v>
-      </c>
-      <c r="L3" s="4">
-        <v>173.28</v>
-      </c>
-      <c r="M3" s="4">
-        <v>360.9</v>
-      </c>
-      <c r="N3" s="4">
-        <v>28.21</v>
-      </c>
-      <c r="O3" s="4">
-        <v>128.19999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -1389,29 +1338,8 @@
       <c r="H4" s="4">
         <v>140.91</v>
       </c>
-      <c r="I4" s="4">
-        <v>1894.42</v>
-      </c>
-      <c r="J4" s="4">
-        <v>1231.77</v>
-      </c>
-      <c r="K4" s="4">
-        <v>662.66</v>
-      </c>
-      <c r="L4" s="4">
-        <v>84.9</v>
-      </c>
-      <c r="M4" s="4">
-        <v>332.43</v>
-      </c>
-      <c r="N4" s="4">
-        <v>118.63</v>
-      </c>
-      <c r="O4" s="4">
-        <v>126.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
@@ -1436,29 +1364,8 @@
       <c r="H5" s="4">
         <v>137.4</v>
       </c>
-      <c r="I5" s="4">
-        <v>2207.0500000000002</v>
-      </c>
-      <c r="J5" s="4">
-        <v>1446.14</v>
-      </c>
-      <c r="K5" s="4">
-        <v>760.91</v>
-      </c>
-      <c r="L5" s="4">
-        <v>207.77</v>
-      </c>
-      <c r="M5" s="4">
-        <v>423.82</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="O5" s="4">
-        <v>129.32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>8</v>
       </c>
@@ -1469,15 +1376,8 @@
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-    </row>
-    <row r="7" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>22</v>
       </c>
@@ -1502,29 +1402,8 @@
       <c r="H7" s="4">
         <v>70.790000000000006</v>
       </c>
-      <c r="I7" s="4">
-        <v>968.02</v>
-      </c>
-      <c r="J7" s="4">
-        <v>680.48</v>
-      </c>
-      <c r="K7" s="4">
-        <v>287.55</v>
-      </c>
-      <c r="L7" s="4">
-        <v>56.8</v>
-      </c>
-      <c r="M7" s="4">
-        <v>143.72</v>
-      </c>
-      <c r="N7" s="4">
-        <v>21.43</v>
-      </c>
-      <c r="O7" s="4">
-        <v>65.599999999999994</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -1549,29 +1428,8 @@
       <c r="H8" s="4">
         <v>56.72</v>
       </c>
-      <c r="I8" s="4">
-        <v>973.21</v>
-      </c>
-      <c r="J8" s="4">
-        <v>672.11</v>
-      </c>
-      <c r="K8" s="4">
-        <v>301.10000000000002</v>
-      </c>
-      <c r="L8" s="4">
-        <v>25.98</v>
-      </c>
-      <c r="M8" s="4">
-        <v>128.99</v>
-      </c>
-      <c r="N8" s="4">
-        <v>90.11</v>
-      </c>
-      <c r="O8" s="4">
-        <v>56.02</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:8" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
@@ -1596,29 +1454,8 @@
       <c r="H9" s="4">
         <v>77.989999999999995</v>
       </c>
-      <c r="I9" s="4">
-        <v>987.6</v>
-      </c>
-      <c r="J9" s="4">
-        <v>675.74</v>
-      </c>
-      <c r="K9" s="4">
-        <v>311.86</v>
-      </c>
-      <c r="L9" s="4">
-        <v>68.650000000000006</v>
-      </c>
-      <c r="M9" s="4">
-        <v>171.29</v>
-      </c>
-      <c r="N9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="O9" s="4">
-        <v>71.92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>9</v>
       </c>
@@ -1629,15 +1466,8 @@
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-    </row>
-    <row r="11" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>22</v>
       </c>
@@ -1662,29 +1492,8 @@
       <c r="H11" s="4">
         <v>16.21</v>
       </c>
-      <c r="I11" s="4">
-        <v>287.39</v>
-      </c>
-      <c r="J11" s="4">
-        <v>187.71</v>
-      </c>
-      <c r="K11" s="4">
-        <v>99.68</v>
-      </c>
-      <c r="L11" s="4">
-        <v>32.68</v>
-      </c>
-      <c r="M11" s="4">
-        <v>48.08</v>
-      </c>
-      <c r="N11" s="4">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="O11" s="4">
-        <v>16.37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
@@ -1709,29 +1518,8 @@
       <c r="H12" s="4">
         <v>14.09</v>
       </c>
-      <c r="I12" s="4">
-        <v>225.08</v>
-      </c>
-      <c r="J12" s="4">
-        <v>148.80000000000001</v>
-      </c>
-      <c r="K12" s="4">
-        <v>76.28</v>
-      </c>
-      <c r="L12" s="4">
-        <v>14.21</v>
-      </c>
-      <c r="M12" s="4">
-        <v>37.549999999999997</v>
-      </c>
-      <c r="N12" s="4">
-        <v>10.73</v>
-      </c>
-      <c r="O12" s="4">
-        <v>13.78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
@@ -1756,29 +1544,8 @@
       <c r="H13" s="4">
         <v>17.43</v>
       </c>
-      <c r="I13" s="4">
-        <v>314.48</v>
-      </c>
-      <c r="J13" s="4">
-        <v>200.48</v>
-      </c>
-      <c r="K13" s="4">
-        <v>114</v>
-      </c>
-      <c r="L13" s="4">
-        <v>38.82</v>
-      </c>
-      <c r="M13" s="4">
-        <v>58.28</v>
-      </c>
-      <c r="N13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="O13" s="4">
-        <v>16.899999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>11</v>
       </c>
@@ -1789,15 +1556,8 @@
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-    </row>
-    <row r="15" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>22</v>
       </c>
@@ -1822,29 +1582,8 @@
       <c r="H15" s="4">
         <v>0.94</v>
       </c>
-      <c r="I15" s="4">
-        <v>16.21</v>
-      </c>
-      <c r="J15" s="4">
-        <v>11.6</v>
-      </c>
-      <c r="K15" s="4">
-        <v>4.6100000000000003</v>
-      </c>
-      <c r="L15" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="M15" s="4">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="N15" s="4">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="O15" s="4">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -1869,29 +1608,8 @@
       <c r="H16" s="4">
         <v>0.91</v>
       </c>
-      <c r="I16" s="4">
-        <v>14.13</v>
-      </c>
-      <c r="J16" s="4">
-        <v>9.4499999999999993</v>
-      </c>
-      <c r="K16" s="4">
-        <v>4.67</v>
-      </c>
-      <c r="L16" s="4">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="M16" s="4">
-        <v>2.14</v>
-      </c>
-      <c r="N16" s="4">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="O16" s="4">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
@@ -1916,29 +1634,8 @@
       <c r="H17" s="4">
         <v>0.98</v>
       </c>
-      <c r="I17" s="4">
-        <v>16.86</v>
-      </c>
-      <c r="J17" s="4">
-        <v>11.9</v>
-      </c>
-      <c r="K17" s="4">
-        <v>4.96</v>
-      </c>
-      <c r="L17" s="4">
-        <v>1.45</v>
-      </c>
-      <c r="M17" s="4">
-        <v>2.58</v>
-      </c>
-      <c r="N17" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="O17" s="4">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
         <v>10</v>
       </c>
@@ -1949,15 +1646,8 @@
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-    </row>
-    <row r="19" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
         <v>22</v>
       </c>
@@ -1982,29 +1672,8 @@
       <c r="H19" s="4">
         <v>0.8</v>
       </c>
-      <c r="I19" s="4">
-        <v>13.97</v>
-      </c>
-      <c r="J19" s="4">
-        <v>9.9600000000000009</v>
-      </c>
-      <c r="K19" s="4">
-        <v>4.01</v>
-      </c>
-      <c r="L19" s="4">
-        <v>1</v>
-      </c>
-      <c r="M19" s="4">
-        <v>2.06</v>
-      </c>
-      <c r="N19" s="4">
-        <v>0.21</v>
-      </c>
-      <c r="O19" s="4">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
@@ -2029,29 +1698,8 @@
       <c r="H20" s="4">
         <v>0.8</v>
       </c>
-      <c r="I20" s="4">
-        <v>13.22</v>
-      </c>
-      <c r="J20" s="4">
-        <v>9.34</v>
-      </c>
-      <c r="K20" s="4">
-        <v>3.89</v>
-      </c>
-      <c r="L20" s="4">
-        <v>0.44</v>
-      </c>
-      <c r="M20" s="4">
-        <v>1.82</v>
-      </c>
-      <c r="N20" s="4">
-        <v>0.88</v>
-      </c>
-      <c r="O20" s="4">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
@@ -2076,29 +1724,8 @@
       <c r="H21" s="4">
         <v>0.82</v>
       </c>
-      <c r="I21" s="4">
-        <v>14.3</v>
-      </c>
-      <c r="J21" s="4">
-        <v>9.92</v>
-      </c>
-      <c r="K21" s="4">
-        <v>4.38</v>
-      </c>
-      <c r="L21" s="4">
-        <v>1.21</v>
-      </c>
-      <c r="M21" s="4">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="N21" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="O21" s="4">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="19" t="s">
         <v>12</v>
       </c>
@@ -2109,15 +1736,8 @@
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-    </row>
-    <row r="23" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
         <v>22</v>
       </c>
@@ -2142,29 +1762,8 @@
       <c r="H23" s="4">
         <v>1.81</v>
       </c>
-      <c r="I23" s="4">
-        <v>28.01</v>
-      </c>
-      <c r="J23" s="4">
-        <v>18.079999999999998</v>
-      </c>
-      <c r="K23" s="4">
-        <v>9.93</v>
-      </c>
-      <c r="L23" s="4">
-        <v>2.37</v>
-      </c>
-      <c r="M23" s="4">
-        <v>5.4</v>
-      </c>
-      <c r="N23" s="4">
-        <v>0.35</v>
-      </c>
-      <c r="O23" s="4">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>15</v>
       </c>
@@ -2189,29 +1788,8 @@
       <c r="H24" s="4">
         <v>1.98</v>
       </c>
-      <c r="I24" s="4">
-        <v>25.81</v>
-      </c>
-      <c r="J24" s="4">
-        <v>16.329999999999998</v>
-      </c>
-      <c r="K24" s="4">
-        <v>9.48</v>
-      </c>
-      <c r="L24" s="4">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="M24" s="4">
-        <v>5.0199999999999996</v>
-      </c>
-      <c r="N24" s="4">
-        <v>1.48</v>
-      </c>
-      <c r="O24" s="4">
-        <v>1.83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>21</v>
       </c>
@@ -2236,29 +1814,8 @@
       <c r="H25" s="4">
         <v>1.8</v>
       </c>
-      <c r="I25" s="4">
-        <v>29.2</v>
-      </c>
-      <c r="J25" s="4">
-        <v>18.27</v>
-      </c>
-      <c r="K25" s="4">
-        <v>10.93</v>
-      </c>
-      <c r="L25" s="4">
-        <v>2.84</v>
-      </c>
-      <c r="M25" s="4">
-        <v>6.29</v>
-      </c>
-      <c r="N25" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="O25" s="4">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="19" t="s">
         <v>13</v>
       </c>
@@ -2269,15 +1826,8 @@
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
       <c r="H26" s="19"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-    </row>
-    <row r="27" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
         <v>22</v>
       </c>
@@ -2302,29 +1852,8 @@
       <c r="H27" s="4">
         <v>5.4</v>
       </c>
-      <c r="I27" s="4">
-        <v>85.03</v>
-      </c>
-      <c r="J27" s="4">
-        <v>54.5</v>
-      </c>
-      <c r="K27" s="4">
-        <v>30.53</v>
-      </c>
-      <c r="L27" s="4">
-        <v>7.92</v>
-      </c>
-      <c r="M27" s="4">
-        <v>16.21</v>
-      </c>
-      <c r="N27" s="4">
-        <v>0.96</v>
-      </c>
-      <c r="O27" s="4">
-        <v>5.43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>15</v>
       </c>
@@ -2349,29 +1878,8 @@
       <c r="H28" s="4">
         <v>5.56</v>
       </c>
-      <c r="I28" s="4">
-        <v>74.86</v>
-      </c>
-      <c r="J28" s="4">
-        <v>47.02</v>
-      </c>
-      <c r="K28" s="4">
-        <v>27.84</v>
-      </c>
-      <c r="L28" s="4">
-        <v>3.84</v>
-      </c>
-      <c r="M28" s="4">
-        <v>14.88</v>
-      </c>
-      <c r="N28" s="4">
-        <v>4.05</v>
-      </c>
-      <c r="O28" s="4">
-        <v>5.0599999999999996</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>21</v>
       </c>
@@ -2396,29 +1904,8 @@
       <c r="H29" s="4">
         <v>5.48</v>
       </c>
-      <c r="I29" s="4">
-        <v>89.89</v>
-      </c>
-      <c r="J29" s="4">
-        <v>55.88</v>
-      </c>
-      <c r="K29" s="4">
-        <v>34.01</v>
-      </c>
-      <c r="L29" s="4">
-        <v>9.4700000000000006</v>
-      </c>
-      <c r="M29" s="4">
-        <v>18.97</v>
-      </c>
-      <c r="N29" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="O29" s="4">
-        <v>5.57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="19" t="s">
         <v>14</v>
       </c>
@@ -2429,15 +1916,8 @@
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
       <c r="H30" s="19"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-    </row>
-    <row r="31" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
         <v>22</v>
       </c>
@@ -2462,29 +1942,8 @@
       <c r="H31" s="4">
         <v>229.98</v>
       </c>
-      <c r="I31" s="4">
-        <v>3389.87</v>
-      </c>
-      <c r="J31" s="4">
-        <v>2109.3200000000002</v>
-      </c>
-      <c r="K31" s="4">
-        <v>1280.54</v>
-      </c>
-      <c r="L31" s="4">
-        <v>376.76</v>
-      </c>
-      <c r="M31" s="4">
-        <v>644.24</v>
-      </c>
-      <c r="N31" s="4">
-        <v>40.86</v>
-      </c>
-      <c r="O31" s="4">
-        <v>218.68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>15</v>
       </c>
@@ -2509,29 +1968,8 @@
       <c r="H32" s="4">
         <v>204.77</v>
       </c>
-      <c r="I32" s="4">
-        <v>2934.18</v>
-      </c>
-      <c r="J32" s="4">
-        <v>1835.85</v>
-      </c>
-      <c r="K32" s="4">
-        <v>1098.33</v>
-      </c>
-      <c r="L32" s="4">
-        <v>172.6</v>
-      </c>
-      <c r="M32" s="4">
-        <v>566.24</v>
-      </c>
-      <c r="N32" s="4">
-        <v>171.82</v>
-      </c>
-      <c r="O32" s="4">
-        <v>187.68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>21</v>
       </c>
@@ -2556,29 +1994,8 @@
       <c r="H33" s="4">
         <v>240.85</v>
       </c>
-      <c r="I33" s="4">
-        <v>3629.69</v>
-      </c>
-      <c r="J33" s="4">
-        <v>2177.5500000000002</v>
-      </c>
-      <c r="K33" s="4">
-        <v>1452.14</v>
-      </c>
-      <c r="L33" s="4">
-        <v>451.2</v>
-      </c>
-      <c r="M33" s="4">
-        <v>767.91</v>
-      </c>
-      <c r="N33" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="O33" s="4">
-        <v>233.03</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>19</v>
       </c>
@@ -2589,15 +2006,8 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-    </row>
-    <row r="35" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
         <v>16</v>
       </c>
@@ -2609,12 +2019,12 @@
       <c r="G35" s="16"/>
       <c r="H35" s="17"/>
     </row>
-    <row r="36" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>20</v>
       </c>
@@ -2626,7 +2036,7 @@
       <c r="G37" s="12"/>
       <c r="H37" s="13"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2636,7 +2046,7 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2657,7 +2067,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
